--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-939917.7547908755</v>
+        <v>-942755.2417633912</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12467955.21590455</v>
+        <v>12467955.21590456</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>89.88897528931841</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>75.2835618867761</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>22.47674815803231</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
-        <v>129.5979557880042</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="3">
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>58.88925452123819</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>121.6042427762948</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>187.52558716632</v>
+        <v>123.2399382129257</v>
       </c>
       <c r="T4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>141.7387788705637</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>344.4438919515988</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>387.1443639382604</v>
       </c>
       <c r="G5" t="n">
-        <v>12.40702888027652</v>
+        <v>253.2793051680523</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.0341090694063</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,10 +987,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>30.31550938650508</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.27207475090987</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.962803072732527</v>
+        <v>3.962803072732186</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.9048469569445</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>45.91533930554948</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>81.93582995083653</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6920641531913</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.6786355006068</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.3885522088505</v>
       </c>
       <c r="J7" t="n">
-        <v>1.52587510426163</v>
+        <v>1.525875104261303</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>182.9239216037576</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2481794362035</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>276.0924886291308</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>246.3600695020536</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046387</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>88.14919951610224</v>
+        <v>24.73065028751195</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>90.02170846993619</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>235.4427564928676</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
-        <v>219.245038753228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>34.44047701880514</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.7664815891586</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826188877</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>166.6594061764987</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>140.9357387834172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>1.594095449514225</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>429.7755376003059</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C2" t="n">
-        <v>429.7755376003059</v>
+        <v>91.04604887914003</v>
       </c>
       <c r="D2" t="n">
-        <v>429.7755376003059</v>
+        <v>91.04604887914003</v>
       </c>
       <c r="E2" t="n">
-        <v>240.3557525838211</v>
+        <v>91.04604887914003</v>
       </c>
       <c r="F2" t="n">
-        <v>50.93596756733626</v>
+        <v>91.04604887914003</v>
       </c>
       <c r="G2" t="n">
-        <v>37.70583299152005</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>37.70583299152005</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
@@ -4340,40 +4340,40 @@
         <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="U2" t="n">
-        <v>619.1953226167907</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V2" t="n">
-        <v>619.1953226167907</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W2" t="n">
-        <v>429.7755376003059</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X2" t="n">
-        <v>429.7755376003059</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y2" t="n">
-        <v>429.7755376003059</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.2627786323101</v>
+        <v>437.8499951878907</v>
       </c>
       <c r="C3" t="n">
-        <v>371.2627786323101</v>
+        <v>263.3969659067637</v>
       </c>
       <c r="D3" t="n">
-        <v>311.778683156312</v>
+        <v>263.3969659067637</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>263.3969659067637</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>627.2697802043754</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>627.2697802043754</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>627.2697802043754</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487949</v>
+        <v>437.8499951878907</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323101</v>
+        <v>437.8499951878907</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323101</v>
+        <v>437.8499951878907</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323101</v>
+        <v>437.8499951878907</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818521</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818521</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818521</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818521</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830974</v>
+        <v>373.5399563830972</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777542</v>
+        <v>471.6341805242513</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143044</v>
+        <v>634.3723839608015</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652798</v>
+        <v>615.9383389575112</v>
       </c>
       <c r="S4" t="n">
-        <v>560.6825636487949</v>
+        <v>491.4535528838488</v>
       </c>
       <c r="T4" t="n">
-        <v>371.2627786323101</v>
+        <v>491.4535528838488</v>
       </c>
       <c r="U4" t="n">
-        <v>371.2627786323101</v>
+        <v>491.4535528838488</v>
       </c>
       <c r="V4" t="n">
-        <v>371.2627786323101</v>
+        <v>491.4535528838488</v>
       </c>
       <c r="W4" t="n">
-        <v>371.2627786323101</v>
+        <v>491.4535528838488</v>
       </c>
       <c r="X4" t="n">
-        <v>228.09229492467</v>
+        <v>491.4535528838488</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818521</v>
+        <v>491.4535528838488</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>398.372525452017</v>
+        <v>677.8641441719424</v>
       </c>
       <c r="C5" t="n">
-        <v>50.4494022685838</v>
+        <v>677.8641441719424</v>
       </c>
       <c r="D5" t="n">
-        <v>50.4494022685838</v>
+        <v>677.8641441719424</v>
       </c>
       <c r="E5" t="n">
-        <v>50.4494022685838</v>
+        <v>677.8641441719424</v>
       </c>
       <c r="F5" t="n">
-        <v>43.50390151938033</v>
+        <v>286.8092311029924</v>
       </c>
       <c r="G5" t="n">
-        <v>30.97154911506061</v>
+        <v>30.97154911506084</v>
       </c>
       <c r="H5" t="n">
-        <v>30.97154911506061</v>
+        <v>30.97154911506084</v>
       </c>
       <c r="I5" t="n">
-        <v>30.97154911506061</v>
+        <v>30.97154911506084</v>
       </c>
       <c r="J5" t="n">
-        <v>95.04805787398709</v>
+        <v>95.04805787398777</v>
       </c>
       <c r="K5" t="n">
-        <v>241.8206526282283</v>
+        <v>241.8206526282304</v>
       </c>
       <c r="L5" t="n">
-        <v>460.8067967994243</v>
+        <v>460.806796799428</v>
       </c>
       <c r="M5" t="n">
-        <v>736.1405137467214</v>
+        <v>736.1405137467267</v>
       </c>
       <c r="N5" t="n">
-        <v>1020.543226465597</v>
+        <v>1020.543226465604</v>
       </c>
       <c r="O5" t="n">
-        <v>1275.761382127133</v>
+        <v>1275.761382127142</v>
       </c>
       <c r="P5" t="n">
-        <v>1459.083172444582</v>
+        <v>1459.083172444592</v>
       </c>
       <c r="Q5" t="n">
-        <v>1548.57745575303</v>
+        <v>1548.577455753042</v>
       </c>
       <c r="R5" t="n">
-        <v>1548.57745575303</v>
+        <v>1548.577455753042</v>
       </c>
       <c r="S5" t="n">
-        <v>1548.57745575303</v>
+        <v>1404.098557703136</v>
       </c>
       <c r="T5" t="n">
-        <v>1548.57745575303</v>
+        <v>1404.098557703136</v>
       </c>
       <c r="U5" t="n">
-        <v>1548.57745575303</v>
+        <v>1404.098557703136</v>
       </c>
       <c r="V5" t="n">
-        <v>1548.57745575303</v>
+        <v>1404.098557703136</v>
       </c>
       <c r="W5" t="n">
-        <v>1548.57745575303</v>
+        <v>1051.329902433022</v>
       </c>
       <c r="X5" t="n">
-        <v>1175.111697491951</v>
+        <v>677.8641441719424</v>
       </c>
       <c r="Y5" t="n">
-        <v>784.9723655161388</v>
+        <v>677.8641441719424</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660.1310010360094</v>
+        <v>789.0073486495601</v>
       </c>
       <c r="C6" t="n">
-        <v>485.6779717548824</v>
+        <v>614.5543193684331</v>
       </c>
       <c r="D6" t="n">
-        <v>336.7435620936311</v>
+        <v>465.6199097071818</v>
       </c>
       <c r="E6" t="n">
-        <v>177.5061070881756</v>
+        <v>306.3824547017263</v>
       </c>
       <c r="F6" t="n">
-        <v>30.97154911506061</v>
+        <v>159.8478967286113</v>
       </c>
       <c r="G6" t="n">
-        <v>30.97154911506061</v>
+        <v>129.2261700755759</v>
       </c>
       <c r="H6" t="n">
-        <v>30.97154911506061</v>
+        <v>30.97154911506084</v>
       </c>
       <c r="I6" t="n">
-        <v>30.97154911506061</v>
+        <v>30.97154911506084</v>
       </c>
       <c r="J6" t="n">
-        <v>175.147356793859</v>
+        <v>175.1473567938597</v>
       </c>
       <c r="K6" t="n">
-        <v>286.3670345740625</v>
+        <v>286.3670345740641</v>
       </c>
       <c r="L6" t="n">
-        <v>482.2381578654304</v>
+        <v>482.2381578654331</v>
       </c>
       <c r="M6" t="n">
-        <v>730.16738827469</v>
+        <v>730.1673882746941</v>
       </c>
       <c r="N6" t="n">
-        <v>1107.331241748086</v>
+        <v>1107.331241748094</v>
       </c>
       <c r="O6" t="n">
-        <v>1331.102251955065</v>
+        <v>1331.102251955074</v>
       </c>
       <c r="P6" t="n">
-        <v>1491.36514940363</v>
+        <v>1491.36514940364</v>
       </c>
       <c r="Q6" t="n">
-        <v>1548.57745575303</v>
+        <v>1548.577455753042</v>
       </c>
       <c r="R6" t="n">
-        <v>1544.574624366432</v>
+        <v>1544.574624366443</v>
       </c>
       <c r="S6" t="n">
-        <v>1544.574624366432</v>
+        <v>1400.226294106904</v>
       </c>
       <c r="T6" t="n">
-        <v>1544.574624366432</v>
+        <v>1400.226294106904</v>
       </c>
       <c r="U6" t="n">
-        <v>1544.574624366432</v>
+        <v>1400.226294106904</v>
       </c>
       <c r="V6" t="n">
-        <v>1498.195493754766</v>
+        <v>1165.074185875161</v>
       </c>
       <c r="W6" t="n">
-        <v>1243.958137026564</v>
+        <v>1165.074185875161</v>
       </c>
       <c r="X6" t="n">
-        <v>1036.106636821031</v>
+        <v>957.2226856696282</v>
       </c>
       <c r="Y6" t="n">
-        <v>828.3463380560775</v>
+        <v>957.2226856696282</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>582.2422176186036</v>
+        <v>765.4565366265864</v>
       </c>
       <c r="C7" t="n">
-        <v>413.3060346906967</v>
+        <v>765.4565366265864</v>
       </c>
       <c r="D7" t="n">
-        <v>263.189395278361</v>
+        <v>765.4565366265864</v>
       </c>
       <c r="E7" t="n">
-        <v>115.2763016959678</v>
+        <v>617.5434430441933</v>
       </c>
       <c r="F7" t="n">
-        <v>32.51283709916326</v>
+        <v>470.6534955462829</v>
       </c>
       <c r="G7" t="n">
-        <v>32.51283709916326</v>
+        <v>302.277673169322</v>
       </c>
       <c r="H7" t="n">
-        <v>32.51283709916326</v>
+        <v>150.0770312495172</v>
       </c>
       <c r="I7" t="n">
-        <v>32.51283709916326</v>
+        <v>32.51283709916316</v>
       </c>
       <c r="J7" t="n">
-        <v>30.97154911506061</v>
+        <v>30.97154911506084</v>
       </c>
       <c r="K7" t="n">
-        <v>158.3259791173026</v>
+        <v>158.3259791173033</v>
       </c>
       <c r="L7" t="n">
-        <v>376.8222375275156</v>
+        <v>376.822237527517</v>
       </c>
       <c r="M7" t="n">
-        <v>617.5850296795829</v>
+        <v>617.585029679585</v>
       </c>
       <c r="N7" t="n">
-        <v>858.0576371874274</v>
+        <v>858.0576371874301</v>
       </c>
       <c r="O7" t="n">
-        <v>1064.156716325816</v>
+        <v>1064.15671632582</v>
       </c>
       <c r="P7" t="n">
-        <v>1216.989401015968</v>
+        <v>1216.989401015972</v>
       </c>
       <c r="Q7" t="n">
-        <v>1239.36774979826</v>
+        <v>1239.367749798264</v>
       </c>
       <c r="R7" t="n">
-        <v>1239.36774979826</v>
+        <v>1239.367749798264</v>
       </c>
       <c r="S7" t="n">
-        <v>1239.36774979826</v>
+        <v>1054.596111814671</v>
       </c>
       <c r="T7" t="n">
-        <v>1239.36774979826</v>
+        <v>1054.596111814671</v>
       </c>
       <c r="U7" t="n">
-        <v>1239.36774979826</v>
+        <v>765.4565366265864</v>
       </c>
       <c r="V7" t="n">
-        <v>984.6832615923735</v>
+        <v>765.4565366265864</v>
       </c>
       <c r="W7" t="n">
-        <v>984.6832615923735</v>
+        <v>765.4565366265864</v>
       </c>
       <c r="X7" t="n">
-        <v>984.6832615923735</v>
+        <v>765.4565366265864</v>
       </c>
       <c r="Y7" t="n">
-        <v>763.8906824488433</v>
+        <v>765.4565366265864</v>
       </c>
     </row>
     <row r="8">
@@ -4781,16 +4781,16 @@
         <v>1447.257607585275</v>
       </c>
       <c r="C8" t="n">
-        <v>1078.295090644863</v>
+        <v>1447.257607585275</v>
       </c>
       <c r="D8" t="n">
-        <v>720.0293920381127</v>
+        <v>1088.991908978524</v>
       </c>
       <c r="E8" t="n">
-        <v>334.2411394398685</v>
+        <v>703.2036563802801</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428181</v>
+        <v>292.2177515906725</v>
       </c>
       <c r="G8" t="n">
         <v>43.36919653809315</v>
@@ -4805,10 +4805,10 @@
         <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711882</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M8" t="n">
         <v>1038.148464578732</v>
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.528648459042</v>
+        <v>931.2981106200058</v>
       </c>
       <c r="C9" t="n">
-        <v>498.075619177915</v>
+        <v>756.8450813388788</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166637</v>
+        <v>607.9106716776275</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112082</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809315</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>69.80729798300615</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>214.3836900926282</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>427.1868157183641</v>
       </c>
       <c r="L9" t="n">
-        <v>661.0941860772716</v>
+        <v>684.7379512783521</v>
       </c>
       <c r="M9" t="n">
-        <v>981.0010815457814</v>
+        <v>1004.644846746862</v>
       </c>
       <c r="N9" t="n">
-        <v>1323.783605540413</v>
+        <v>1347.427370741494</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.477412699316</v>
+        <v>1638.78661699606</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260217</v>
+        <v>1853.295032556961</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904657</v>
+        <v>2154.745546059892</v>
       </c>
       <c r="R9" t="n">
         <v>2168.459826904657</v>
@@ -4911,22 +4911,22 @@
         <v>2029.495166406375</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880351</v>
+        <v>2029.495166406375</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>2004.514711570505</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1769.362603338762</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1515.12524661056</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>1307.273746405028</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791101</v>
+        <v>1099.513447640074</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>748.1560786151405</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="C10" t="n">
-        <v>579.2198956872336</v>
+        <v>341.398929532822</v>
       </c>
       <c r="D10" t="n">
-        <v>429.1032562748978</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="E10" t="n">
-        <v>281.1901626925047</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F10" t="n">
-        <v>134.3002151945944</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
         <v>43.36919653809315</v>
@@ -4996,16 +4996,16 @@
         <v>1486.355378693649</v>
       </c>
       <c r="V10" t="n">
-        <v>1486.355378693649</v>
+        <v>1248.534412539237</v>
       </c>
       <c r="W10" t="n">
-        <v>1196.938208656688</v>
+        <v>959.1172425022763</v>
       </c>
       <c r="X10" t="n">
-        <v>968.9486577586706</v>
+        <v>731.127691604259</v>
       </c>
       <c r="Y10" t="n">
-        <v>748.1560786151405</v>
+        <v>510.3351124607289</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5124,19 +5124,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.5507239167111</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079496</v>
       </c>
       <c r="Y16" t="n">
-        <v>718.5507239167111</v>
+        <v>1138.603793935966</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>580.899304487667</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597601</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474244</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650312</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650312</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614369</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179067</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6224,28 +6224,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6935,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150022</v>
@@ -7318,25 +7318,25 @@
         <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,13 +7430,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7606,13 +7606,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
@@ -7798,13 +7798,13 @@
         <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>75.41988959484645</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777606</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>33.68798027969987</v>
+        <v>33.68798027969925</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>109.3576052079856</v>
+        <v>109.3576052079882</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>56.27460493020891</v>
       </c>
       <c r="L9" t="n">
-        <v>158.4830491584152</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>247.8126877821578</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275.3839164816891</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U2" t="n">
-        <v>121.5713047770261</v>
+        <v>63.64367339871052</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>198.7123514897338</v>
       </c>
     </row>
     <row r="3">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
-        <v>32.89260457059996</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>191.269178370232</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.81817176293617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>145.6085800303801</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.5874149221291418</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26317,13 +26317,13 @@
         <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
         <v>221965.3149147518</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
@@ -26341,19 +26341,19 @@
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>220966.6210019807</v>
+        <v>220966.6210019841</v>
       </c>
       <c r="D3" t="n">
-        <v>162386.8333621682</v>
+        <v>162386.8333621651</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>51375.48534023997</v>
+        <v>51375.4853402408</v>
       </c>
       <c r="L3" t="n">
-        <v>39221.66229928419</v>
+        <v>39221.66229928332</v>
       </c>
       <c r="M3" t="n">
         <v>176574.0985452295</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203890.6703709633</v>
+        <v>203890.6703709634</v>
       </c>
       <c r="C4" t="n">
-        <v>219393.0108746713</v>
+        <v>219393.0108746705</v>
       </c>
       <c r="D4" t="n">
         <v>173824.4120003225</v>
@@ -26442,22 +26442,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994855</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994855</v>
       </c>
       <c r="O4" t="n">
         <v>22207.61133994855</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994853</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>72868.68132712516</v>
+        <v>72868.68132712539</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587233</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662234.8465217421</v>
+        <v>-662560.1916120239</v>
       </c>
       <c r="C6" t="n">
-        <v>-287441.8264910993</v>
+        <v>-287441.8264911022</v>
       </c>
       <c r="D6" t="n">
-        <v>-195623.8405056852</v>
+        <v>-195623.840505682</v>
       </c>
       <c r="E6" t="n">
-        <v>-494817.1745602744</v>
+        <v>-494851.9124857102</v>
       </c>
       <c r="F6" t="n">
-        <v>106626.0330139896</v>
+        <v>106591.2950885539</v>
       </c>
       <c r="G6" t="n">
-        <v>106626.0330139896</v>
+        <v>106591.2950885538</v>
       </c>
       <c r="H6" t="n">
-        <v>106626.0330139895</v>
+        <v>106591.2950885539</v>
       </c>
       <c r="I6" t="n">
-        <v>106626.0330139896</v>
+        <v>106591.2950885539</v>
       </c>
       <c r="J6" t="n">
-        <v>57561.08828544496</v>
+        <v>57526.35036000927</v>
       </c>
       <c r="K6" t="n">
-        <v>55250.54767374953</v>
+        <v>55215.80974831298</v>
       </c>
       <c r="L6" t="n">
-        <v>67404.37071470531</v>
+        <v>67369.6327892706</v>
       </c>
       <c r="M6" t="n">
-        <v>-76159.33902641528</v>
+        <v>-76159.33902641537</v>
       </c>
       <c r="N6" t="n">
-        <v>100414.7595188141</v>
+        <v>100414.7595188142</v>
       </c>
       <c r="O6" t="n">
-        <v>100414.7595188141</v>
+        <v>100414.7595188142</v>
       </c>
       <c r="P6" t="n">
-        <v>100414.7595188141</v>
+        <v>100414.7595188142</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>720.3075229210597</v>
+        <v>720.3075229210622</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.710664537685</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>387.1443639382576</v>
+        <v>387.1443639382604</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261643</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>171.837582008155</v>
+        <v>171.8375820081577</v>
       </c>
       <c r="D3" t="n">
-        <v>133.4031416166255</v>
+        <v>133.4031416166229</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>199.6187767719376</v>
+        <v>199.6187767719406</v>
       </c>
       <c r="D4" t="n">
-        <v>154.9705927879068</v>
+        <v>154.9705927879039</v>
       </c>
       <c r="E4" t="n">
         <v>630.593331373484</v>
@@ -27036,10 +27036,10 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>199.6187767719374</v>
+        <v>199.6187767719406</v>
       </c>
       <c r="L4" t="n">
-        <v>154.9705927879071</v>
+        <v>154.9705927879037</v>
       </c>
       <c r="M4" t="n">
         <v>630.593331373484</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>199.6187767719376</v>
+        <v>199.6187767719406</v>
       </c>
       <c r="L4" t="n">
-        <v>154.9705927879068</v>
+        <v>154.9705927879039</v>
       </c>
       <c r="M4" t="n">
         <v>630.593331373484</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>337.8142713432819</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>102.9945689619424</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>88.55581104340057</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>28.1660019146548</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310532</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917628</v>
+        <v>83.54031758257051</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378014</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>83.97087651847343</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577484</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>20.82899981940875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>19.73168180345101</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>159.1277237122243</v>
       </c>
       <c r="H5" t="n">
-        <v>309.8191260590222</v>
+        <v>309.8191260590221</v>
       </c>
       <c r="I5" t="n">
-        <v>98.83908242502235</v>
+        <v>98.83908242502197</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.0341090694066</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4198850150381</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7941764535314</v>
+        <v>105.4786670670263</v>
       </c>
       <c r="H6" t="n">
-        <v>97.27207475090992</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.05310403131772</v>
+        <v>36.05310403131754</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>142.9048469569446</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.9197983781758</v>
@@ -27752,16 +27752,16 @@
         <v>225.8394517711275</v>
       </c>
       <c r="V6" t="n">
-        <v>186.8852478438758</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>63.48521807209471</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6920641531913</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.6786355006068</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.3885522088507</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>118.8894404203242</v>
+        <v>118.889440420324</v>
       </c>
       <c r="S7" t="n">
-        <v>201.3800485051744</v>
+        <v>18.4561269014167</v>
       </c>
       <c r="T7" t="n">
         <v>222.395679005775</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2481794362035</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>130.7835571125806</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>165.5106653415732</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046386</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,10 +27983,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>137.6713744519663</v>
+        <v>201.0899236805566</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>76.4297926409956</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28068,7 +28068,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>16.6948868309604</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.895708634858529</v>
+        <v>2.895708634858539</v>
       </c>
       <c r="H5" t="n">
-        <v>29.65567605674492</v>
+        <v>29.65567605674502</v>
       </c>
       <c r="I5" t="n">
-        <v>111.6368071453836</v>
+        <v>111.6368071453839</v>
       </c>
       <c r="J5" t="n">
-        <v>245.7696507478243</v>
+        <v>245.7696507478252</v>
       </c>
       <c r="K5" t="n">
-        <v>368.3449972613859</v>
+        <v>368.3449972613872</v>
       </c>
       <c r="L5" t="n">
-        <v>456.9645403954377</v>
+        <v>456.9645403954393</v>
       </c>
       <c r="M5" t="n">
-        <v>508.4610988306031</v>
+        <v>508.4610988306048</v>
       </c>
       <c r="N5" t="n">
-        <v>516.688530989395</v>
+        <v>516.6885309893967</v>
       </c>
       <c r="O5" t="n">
-        <v>487.8943282515204</v>
+        <v>487.8943282515221</v>
       </c>
       <c r="P5" t="n">
-        <v>416.4065213284504</v>
+        <v>416.4065213284518</v>
       </c>
       <c r="Q5" t="n">
-        <v>312.7039558425792</v>
+        <v>312.7039558425803</v>
       </c>
       <c r="R5" t="n">
-        <v>181.8975575344323</v>
+        <v>181.8975575344329</v>
       </c>
       <c r="S5" t="n">
-        <v>65.9859605168388</v>
+        <v>65.98596051683903</v>
       </c>
       <c r="T5" t="n">
-        <v>12.67596454909322</v>
+        <v>12.67596454909326</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2316566907886823</v>
+        <v>0.2316566907886831</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54934070967926</v>
+        <v>1.549340709679266</v>
       </c>
       <c r="H6" t="n">
-        <v>14.96336948558654</v>
+        <v>14.9633694855866</v>
       </c>
       <c r="I6" t="n">
-        <v>53.34352882009735</v>
+        <v>53.34352882009754</v>
       </c>
       <c r="J6" t="n">
-        <v>146.378720294741</v>
+        <v>146.3787202947415</v>
       </c>
       <c r="K6" t="n">
-        <v>250.1845478432515</v>
+        <v>250.1845478432523</v>
       </c>
       <c r="L6" t="n">
-        <v>336.4039992661044</v>
+        <v>336.4039992661055</v>
       </c>
       <c r="M6" t="n">
-        <v>392.5675999919775</v>
+        <v>392.5675999919789</v>
       </c>
       <c r="N6" t="n">
-        <v>402.9576962424143</v>
+        <v>402.9576962424158</v>
       </c>
       <c r="O6" t="n">
-        <v>368.627567885837</v>
+        <v>368.6275678858383</v>
       </c>
       <c r="P6" t="n">
-        <v>295.8561220088405</v>
+        <v>295.8561220088416</v>
       </c>
       <c r="Q6" t="n">
-        <v>197.7719825197597</v>
+        <v>197.7719825197603</v>
       </c>
       <c r="R6" t="n">
-        <v>96.19503107991061</v>
+        <v>96.19503107991095</v>
       </c>
       <c r="S6" t="n">
-        <v>28.77832414689326</v>
+        <v>28.77832414689336</v>
       </c>
       <c r="T6" t="n">
-        <v>6.244930316645789</v>
+        <v>6.24493031664581</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1019303098473198</v>
+        <v>0.1019303098473202</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.298915205267485</v>
+        <v>1.298915205267489</v>
       </c>
       <c r="H7" t="n">
-        <v>11.54853700683273</v>
+        <v>11.54853700683277</v>
       </c>
       <c r="I7" t="n">
-        <v>39.06192271840764</v>
+        <v>39.06192271840777</v>
       </c>
       <c r="J7" t="n">
-        <v>91.83330501241115</v>
+        <v>91.83330501241147</v>
       </c>
       <c r="K7" t="n">
-        <v>150.9103302119859</v>
+        <v>150.9103302119864</v>
       </c>
       <c r="L7" t="n">
-        <v>193.1132660631313</v>
+        <v>193.113266063132</v>
       </c>
       <c r="M7" t="n">
-        <v>203.6108625857021</v>
+        <v>203.6108625857028</v>
       </c>
       <c r="N7" t="n">
-        <v>198.7694513660689</v>
+        <v>198.7694513660696</v>
       </c>
       <c r="O7" t="n">
-        <v>183.5957601045351</v>
+        <v>183.5957601045357</v>
       </c>
       <c r="P7" t="n">
-        <v>157.0978899170782</v>
+        <v>157.0978899170788</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.76643596108</v>
+        <v>108.7664359610804</v>
       </c>
       <c r="R7" t="n">
-        <v>58.40395095684524</v>
+        <v>58.40395095684545</v>
       </c>
       <c r="S7" t="n">
-        <v>22.63654953179788</v>
+        <v>22.63654953179796</v>
       </c>
       <c r="T7" t="n">
-        <v>5.549910422506524</v>
+        <v>5.549910422506542</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07084992028731742</v>
+        <v>0.07084992028731767</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31525,16 +31525,16 @@
         <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O8" t="n">
         <v>578.253840119091</v>
@@ -31543,10 +31543,10 @@
         <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
         <v>78.20676087699499</v>
@@ -31555,7 +31555,7 @@
         <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076064</v>
@@ -31607,13 +31607,13 @@
         <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O9" t="n">
         <v>436.898513388451</v>
@@ -31622,19 +31622,19 @@
         <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
         <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J10" t="n">
         <v>108.841112100157</v>
@@ -31692,7 +31692,7 @@
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595399</v>
@@ -31701,7 +31701,7 @@
         <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
         <v>69.22054011153097</v>
@@ -31710,10 +31710,10 @@
         <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,16 +34863,16 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>99.08507489005468</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068223</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>64.72374622113801</v>
+        <v>64.72374622113887</v>
       </c>
       <c r="K5" t="n">
-        <v>148.2551462164054</v>
+        <v>148.2551462164067</v>
       </c>
       <c r="L5" t="n">
-        <v>221.1981254254505</v>
+        <v>221.1981254254521</v>
       </c>
       <c r="M5" t="n">
-        <v>278.1148656033304</v>
+        <v>278.1148656033321</v>
       </c>
       <c r="N5" t="n">
-        <v>287.275467392804</v>
+        <v>287.2754673928058</v>
       </c>
       <c r="O5" t="n">
-        <v>257.7961168298336</v>
+        <v>257.7961168298353</v>
       </c>
       <c r="P5" t="n">
-        <v>185.1735255731808</v>
+        <v>185.1735255731823</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.39826596812972</v>
+        <v>90.3982659681308</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6321289684832</v>
+        <v>145.6321289684837</v>
       </c>
       <c r="K6" t="n">
-        <v>112.3431088688925</v>
+        <v>112.3431088688934</v>
       </c>
       <c r="L6" t="n">
-        <v>197.8496194862302</v>
+        <v>197.8496194862313</v>
       </c>
       <c r="M6" t="n">
-        <v>250.4335660699592</v>
+        <v>250.4335660699605</v>
       </c>
       <c r="N6" t="n">
-        <v>380.9735893670666</v>
+        <v>380.9735893670707</v>
       </c>
       <c r="O6" t="n">
-        <v>226.0313234413926</v>
+        <v>226.0313234413939</v>
       </c>
       <c r="P6" t="n">
-        <v>161.8817145945103</v>
+        <v>161.8817145945113</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.79020843373814</v>
+        <v>57.79020843373883</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.640838386103</v>
+        <v>128.6408383861036</v>
       </c>
       <c r="L7" t="n">
-        <v>220.7032913234475</v>
+        <v>220.7032913234481</v>
       </c>
       <c r="M7" t="n">
-        <v>243.1947395475427</v>
+        <v>243.1947395475434</v>
       </c>
       <c r="N7" t="n">
-        <v>242.9016237452975</v>
+        <v>242.9016237452982</v>
       </c>
       <c r="O7" t="n">
-        <v>208.1808880185747</v>
+        <v>208.1808880185754</v>
       </c>
       <c r="P7" t="n">
-        <v>154.3764491819717</v>
+        <v>154.3764491819723</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.60439270938562</v>
+        <v>22.604392709386</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O8" t="n">
         <v>348.1556286974043</v>
@@ -35191,7 +35191,7 @@
         <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>172.7419126813485</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>214.952652147208</v>
       </c>
       <c r="L9" t="n">
-        <v>418.6357113402213</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>542.1149567261643</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>304.4954681847784</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>13.85280893410663</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35349,7 +35349,7 @@
         <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349607</v>
+        <v>42.74826709349604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998968</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
